--- a/biology/Botanique/Cuscuta_epithymum_subsp._epithymum/Cuscuta_epithymum_subsp._epithymum.xlsx
+++ b/biology/Botanique/Cuscuta_epithymum_subsp._epithymum/Cuscuta_epithymum_subsp._epithymum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuscuta epithymum subsp. epithymum (cuscute du trèfle ou cuscute blanche) est une sous-espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire de la région paléarctique.
 C'est une plante herbacée parasite qui attaque notamment les cultures de luzerne.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des espèces, sous-espèces et variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (21 octobre 2015)[1] :
+          <t>Liste des espèces, sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 octobre 2015) :
 Cuscuta epithymum (L.) L. (1759)
 variété Cuscuta epithymum var. alba (J.Presl &amp; C.Presl) Trab. (1907)
 variété Cuscuta epithymum var. angustissima (Engelm.) Yunck. (1932)
@@ -524,9 +541,43 @@
 variété Cuscuta epithymum var. macranthera (Heldr. &amp; Sart. ex Boiss.) Engelm. (1859)
 variété Cuscuta epithymum var. rubella (Engelm.) Trab. (1907)
 variété Cuscuta epithymum var. sagittanthera Engelm. (1859)
-variété Cuscuta epithymum var. scabrella (Engelm.) Yunck. (1932)
-Synonymes
-Catalogue of Life                                   (21 octobre 2015)[2] :
+variété Cuscuta epithymum var. scabrella (Engelm.) Yunck. (1932)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuscuta_epithymum_subsp._epithymum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_epithymum_subsp._epithymum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalogue of Life                                   (21 octobre 2015) :
 Cuscuta acutiflora Rota
 Cuscuta alba J. &amp; C. Presl
 Cuscuta barbuvea (Brot.) G. Sampaio
